--- a/Industrial Radio/BOM.xlsx
+++ b/Industrial Radio/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Documents\GitHub\Industrial-Radio\Industrial Radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679EC39-45CC-42C2-8B43-5841BB393A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343EDDD-4D24-46E5-8595-C1B8D1C0B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{013B6EB0-0A36-4A20-8D5E-B076DBDDE1F9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
   <si>
     <t>Comment</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Coilcraft</t>
+  </si>
+  <si>
+    <t>Espressif Systems</t>
   </si>
 </sst>
 </file>
@@ -899,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EA1068-8C3A-4FA3-80AE-939043075D6A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1321,7 +1324,9 @@
       <c r="G16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
@@ -1342,8 +1347,12 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -1367,7 +1376,9 @@
       <c r="G18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1556,8 +1567,12 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
@@ -1605,7 +1620,9 @@
       <c r="G28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">

--- a/Industrial Radio/BOM.xlsx
+++ b/Industrial Radio/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MASTER\Documents\GitHub\Industrial-Radio\Industrial Radio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343EDDD-4D24-46E5-8595-C1B8D1C0B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C753440F-EBAD-46BC-9EC8-63BD4DB52A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{013B6EB0-0A36-4A20-8D5E-B076DBDDE1F9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="155">
   <si>
     <t>Comment</t>
   </si>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EA1068-8C3A-4FA3-80AE-939043075D6A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1402,7 +1402,9 @@
       <c r="G19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1426,7 +1428,9 @@
       <c r="G20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -1450,7 +1454,9 @@
       <c r="G21" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
@@ -1474,7 +1480,9 @@
       <c r="G22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
@@ -1498,7 +1506,9 @@
       <c r="G23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -1522,7 +1532,9 @@
       <c r="G24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
@@ -1546,7 +1558,9 @@
       <c r="G25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
